--- a/docs/mcode/shr-core-SimpleNonLaboratoryObservation.xlsx
+++ b/docs/mcode/shr-core-SimpleNonLaboratoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="368">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,190 +309,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -490,6 +389,9 @@
     <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -512,6 +414,9 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -613,6 +518,10 @@
   </si>
   <si>
     <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>Date/Time this was made available</t>
@@ -779,7 +688,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -791,7 +700,19 @@
     <t>Observation.bodySite.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -801,27 +722,41 @@
     <t>open</t>
   </si>
   <si>
-    <t>locationqualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+</t>
+  </si>
+  <si>
     <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>Observation.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1376,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1386,7 +1321,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1408,8 +1343,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1870,21 +1805,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1947,7 +1884,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -1955,18 +1892,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2013,13 +1950,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2051,7 +1988,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2059,11 +1996,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2079,19 +2016,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2146,7 +2083,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2155,7 +2092,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2163,18 +2100,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2183,19 +2120,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2259,7 +2196,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2267,11 +2204,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2287,19 +2224,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2363,7 +2300,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2371,11 +2308,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2388,22 +2325,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2429,13 +2366,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2467,7 +2404,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2475,7 +2412,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2495,21 +2432,21 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2533,10 +2470,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2568,18 +2505,18 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2587,7 +2524,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>51</v>
@@ -2602,18 +2539,18 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2637,13 +2574,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2672,18 +2609,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2706,16 +2643,16 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2741,13 +2678,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2779,23 +2716,23 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
@@ -2807,21 +2744,21 @@
         <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2845,13 +2782,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2874,35 +2811,35 @@
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -2911,21 +2848,23 @@
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2972,11 +2911,15 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2984,29 +2927,29 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3018,18 +2961,18 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3088,52 +3031,54 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3192,18 +3137,18 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3214,7 +3159,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3223,21 +3168,21 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3296,18 +3241,18 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3315,32 +3260,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3365,13 +3310,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3400,18 +3345,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3431,21 +3376,23 @@
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3469,13 +3416,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3504,18 +3451,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>155</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3523,7 +3470,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -3535,20 +3482,22 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N21" t="s" s="2">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3573,13 +3522,11 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3602,32 +3549,32 @@
       </c>
       <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3639,22 +3586,20 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3679,13 +3624,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3702,15 +3647,11 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3718,18 +3659,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3752,17 +3693,17 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3822,18 +3763,18 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3853,22 +3794,22 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3893,13 +3834,11 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3928,18 +3867,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3959,20 +3898,18 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4032,22 +3969,22 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4063,21 +4000,21 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4113,16 +4050,14 @@
         <v>42</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
@@ -4136,20 +4071,22 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4167,23 +4104,17 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4230,11 +4161,15 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4242,10 +4177,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4253,9 +4188,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4276,20 +4213,14 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4313,11 +4244,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4334,22 +4267,26 @@
       <c r="AD28" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH28" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4357,18 +4294,20 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C29" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4380,18 +4319,14 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4415,13 +4350,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4438,11 +4373,15 @@
       <c r="AD29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4450,10 +4389,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4461,7 +4400,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4472,7 +4411,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4481,20 +4420,22 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4554,10 +4495,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4565,7 +4506,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4585,22 +4526,22 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4625,11 +4566,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4658,10 +4601,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4669,7 +4612,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4692,16 +4635,20 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4725,13 +4672,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4760,10 +4707,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4771,18 +4718,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4794,16 +4741,16 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4841,20 +4788,26 @@
         <v>42</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AE33" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4862,10 +4815,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4873,11 +4826,9 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4886,7 +4837,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -4898,13 +4849,17 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4952,15 +4907,11 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4968,10 +4919,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -4979,11 +4930,9 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>42</v>
       </c>
@@ -4992,7 +4941,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5004,14 +4953,20 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="K35" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5059,7 +5014,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5071,13 +5026,13 @@
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5085,7 +5040,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5096,7 +5051,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5105,23 +5060,19 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5180,10 +5131,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5191,18 +5142,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5211,23 +5162,21 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5286,10 +5235,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5297,43 +5246,41 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5357,13 +5304,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5392,10 +5339,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>88</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5403,7 +5350,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5414,7 +5361,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5426,17 +5373,15 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5484,26 +5429,22 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5511,7 +5452,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5534,17 +5475,15 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5598,16 +5537,16 @@
       </c>
       <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5615,7 +5554,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5638,19 +5577,19 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5675,13 +5614,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5698,26 +5637,22 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5725,7 +5660,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5748,16 +5683,18 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5819,7 +5756,7 @@
         <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5827,18 +5764,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5850,17 +5787,15 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5920,10 +5855,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -5931,41 +5866,43 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6012,11 +5949,15 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6024,10 +5965,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6035,7 +5976,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6058,13 +5999,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6120,16 +6061,16 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6137,18 +6078,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6160,15 +6101,17 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6222,16 +6165,16 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6239,43 +6182,41 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6299,13 +6240,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6334,10 +6275,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6345,7 +6286,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6368,24 +6309,26 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>42</v>
@@ -6403,13 +6346,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6438,10 +6381,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6449,7 +6392,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6457,7 +6400,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -6472,13 +6415,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6540,10 +6483,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6551,7 +6494,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6574,19 +6517,19 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6635,7 +6578,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6650,10 +6593,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6661,7 +6604,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6687,10 +6630,10 @@
         <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6755,7 +6698,7 @@
         <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6763,11 +6706,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6786,16 +6729,16 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6859,7 +6802,7 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6867,11 +6810,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6890,16 +6833,16 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6963,7 +6906,7 @@
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -6971,7 +6914,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6979,7 +6922,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>51</v>
@@ -6991,29 +6934,27 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M54" t="s" s="2">
         <v>350</v>
       </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>42</v>
@@ -7031,13 +6972,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>353</v>
+        <v>129</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7060,24 +7001,24 @@
       </c>
       <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7085,7 +7026,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7097,19 +7038,23 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7168,10 +7113,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7179,7 +7124,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7190,7 +7135,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7199,22 +7144,22 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>186</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7239,13 +7184,11 @@
         <v>42</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>42</v>
@@ -7262,26 +7205,22 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>366</v>
+        <v>191</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7289,7 +7228,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7300,7 +7239,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7312,16 +7251,20 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>62</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7380,10 +7323,10 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7391,18 +7334,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7414,17 +7357,15 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7487,7 +7428,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7495,11 +7436,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7512,22 +7453,22 @@
         <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7591,7 +7532,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7599,41 +7540,41 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>371</v>
+        <v>96</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7657,13 +7598,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7686,24 +7627,24 @@
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7723,23 +7664,19 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7792,16 +7729,16 @@
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7809,7 +7746,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7832,20 +7769,16 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -7869,11 +7802,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -7896,16 +7831,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -7913,7 +7848,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7924,7 +7859,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -7936,19 +7871,19 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -7973,13 +7908,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8008,10 +7943,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8019,7 +7954,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8042,16 +7977,18 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8113,7 +8050,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8121,18 +8058,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8144,17 +8081,15 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8214,637 +8149,17 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE66" s="2"/>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE67" s="2"/>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" s="2"/>
-      <c r="AH67" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE68" s="2"/>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" s="2"/>
-      <c r="AH68" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE69" s="2"/>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" s="2"/>
-      <c r="AH69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE70" s="2"/>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" s="2"/>
-      <c r="AH70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE71" s="2"/>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL71" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL71">
+  <autoFilter ref="A1:AL65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8854,7 +8169,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
